--- a/Zeta-Potential_Plots/20231025_Zeta_DMAPolymers_NP5_pDNA10_01PBS.xlsx
+++ b/Zeta-Potential_Plots/20231025_Zeta_DMAPolymers_NP5_pDNA10_01PBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA47F88-B9A8-B243-B309-411A71B4098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD5BAA-7B04-7F42-B318-B9EB6768CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24580" yWindow="7960" windowWidth="27240" windowHeight="16440" xr2:uid="{D3E0D921-92E8-D042-96A2-F2CB41755C68}"/>
+    <workbookView xWindow="23960" yWindow="7960" windowWidth="27240" windowHeight="16440" xr2:uid="{D3E0D921-92E8-D042-96A2-F2CB41755C68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
